--- a/data/metrics/june2021_rerun/sens.filt_seed60_2021-06-14.xlsx
+++ b/data/metrics/june2021_rerun/sens.filt_seed60_2021-06-14.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\LGSS_scripting\lgss\data\metrics\june2021_rerun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C6500C71-19BA-4E7C-B2BC-8249D83CEC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F0B822-A204-4CA9-A664-A1A04426B938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="2090" yWindow="570" windowWidth="19400" windowHeight="11000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sens.filt_seed60_2021-06-14" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sens.filt_seed60_2021-06-14'!$A$1:$J$29</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>metric</t>
   </si>
@@ -158,12 +169,15 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>position</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -300,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,8 +506,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -617,6 +643,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -662,17 +725,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1027,27 +1098,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:J18"/>
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1076,10 +1150,10 @@
       <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1227,7 +1301,7 @@
       <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1301,7 +1375,7 @@
       <c r="I9">
         <v>22.7</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="17">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1312,7 +1386,7 @@
       <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
@@ -1330,7 +1404,7 @@
       <c r="I10">
         <v>7.6</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="13">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1341,7 +1415,7 @@
       <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
@@ -1359,7 +1433,7 @@
       <c r="I11">
         <v>7.6</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="14">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1431,7 +1505,7 @@
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1535,7 @@
       <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1488,7 +1562,7 @@
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
@@ -1517,7 +1591,7 @@
       <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E17" t="s">
@@ -1535,7 +1609,7 @@
       <c r="I17">
         <v>1.7388390811777801</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="11">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1546,7 +1620,7 @@
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E18" t="s">
@@ -1564,7 +1638,7 @@
       <c r="I18">
         <v>1.7388390811777801</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="15">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1575,7 +1649,7 @@
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E19" t="s">
@@ -1593,7 +1667,7 @@
       <c r="I19">
         <v>1.3585886750538401</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="15">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1604,7 +1678,7 @@
       <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
@@ -1622,7 +1696,7 @@
       <c r="I20">
         <v>1.37481323095226</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="15">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1633,7 +1707,7 @@
       <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E21" t="s">
@@ -1651,7 +1725,7 @@
       <c r="I21">
         <v>2.0575240379824198</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="15">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1662,7 +1736,7 @@
       <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E22" t="s">
@@ -1680,7 +1754,7 @@
       <c r="I22">
         <v>2.0575240379824198</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="15">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1691,7 +1765,7 @@
       <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
@@ -1709,7 +1783,7 @@
       <c r="I23">
         <v>1.7453848104163701</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="16">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1896,4 +1970,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6487D7D-7BB6-4D2D-B0F0-53140EF24F4B}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/metrics/june2021_rerun/sens.filt_seed60_2021-06-14.xlsx
+++ b/data/metrics/june2021_rerun/sens.filt_seed60_2021-06-14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\LGSS_scripting\lgss\data\metrics\june2021_rerun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F0B822-A204-4CA9-A664-A1A04426B938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9859F0A5-A1FB-424D-A905-D0ED7211925D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2090" yWindow="570" windowWidth="19400" windowHeight="11000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sens.filt_seed60_2021-06-14" sheetId="1" r:id="rId1"/>
@@ -725,12 +725,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -744,6 +742,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1101,14 +1102,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1121,7 +1122,7 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1150,10 +1151,10 @@
       <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1301,7 +1302,7 @@
       <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1328,7 +1329,7 @@
       <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
@@ -1357,7 +1358,7 @@
       <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
@@ -1375,7 +1376,7 @@
       <c r="I9">
         <v>22.7</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="15">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
@@ -1404,7 +1405,7 @@
       <c r="I10">
         <v>7.6</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="11">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1415,7 +1416,7 @@
       <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
@@ -1433,7 +1434,7 @@
       <c r="I11">
         <v>7.6</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="12">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1505,7 +1506,7 @@
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1532,10 +1533,10 @@
       <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1562,7 +1563,7 @@
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
@@ -1591,7 +1592,7 @@
       <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E17" t="s">
@@ -1609,7 +1610,7 @@
       <c r="I17">
         <v>1.7388390811777801</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="9">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1620,7 +1621,7 @@
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E18" t="s">
@@ -1638,7 +1639,7 @@
       <c r="I18">
         <v>1.7388390811777801</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="13">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1649,7 +1650,7 @@
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E19" t="s">
@@ -1667,7 +1668,7 @@
       <c r="I19">
         <v>1.3585886750538401</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="13">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1678,7 +1679,7 @@
       <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
@@ -1696,7 +1697,7 @@
       <c r="I20">
         <v>1.37481323095226</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="13">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1707,7 +1708,7 @@
       <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E21" t="s">
@@ -1725,7 +1726,7 @@
       <c r="I21">
         <v>2.0575240379824198</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="13">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1736,7 +1737,7 @@
       <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E22" t="s">
@@ -1754,7 +1755,7 @@
       <c r="I22">
         <v>2.0575240379824198</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="13">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1765,7 +1766,7 @@
       <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
@@ -1783,7 +1784,7 @@
       <c r="I23">
         <v>1.7453848104163701</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="14">
         <v>76.923076923076906</v>
       </c>
     </row>
@@ -1983,16 +1984,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
